--- a/config_4.6/game_activity_config.xlsx
+++ b/config_4.6/game_activity_config.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="135">
   <si>
     <t>title|标题</t>
   </si>
@@ -450,10 +450,6 @@
   </si>
   <si>
     <t>actp_031_xxy_show</t>
-  </si>
-  <si>
-    <t>actp_no_cjj_gej_exchange</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>normal</t>
@@ -1068,7 +1064,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1135,7 +1131,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1583,7 +1579,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>61</v>
@@ -1594,9 +1590,7 @@
       <c r="G12" s="18">
         <v>1</v>
       </c>
-      <c r="H12" s="23" t="s">
-        <v>103</v>
-      </c>
+      <c r="H12" s="23"/>
       <c r="I12" s="18">
         <v>1617667200</v>
       </c>
@@ -1673,7 +1667,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>95</v>
@@ -1720,7 +1714,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>94</v>
@@ -2072,7 +2066,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>83</v>
@@ -2162,7 +2156,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="18">
@@ -2191,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="O25" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -2205,7 +2199,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>86</v>
@@ -2252,7 +2246,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>87</v>
@@ -2326,7 +2320,7 @@
         <v>1</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -2334,13 +2328,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C29" s="8">
         <v>28</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F29" s="3">
         <v>-20</v>
@@ -2355,19 +2349,19 @@
         <v>-1</v>
       </c>
       <c r="K29" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3">
+        <v>1</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="N29" s="3">
-        <v>1</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -2381,10 +2375,10 @@
         <v>29</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F30" s="3">
         <v>2</v>
@@ -2393,7 +2387,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I30" s="3">
         <v>1617667200</v>
@@ -2408,13 +2402,13 @@
         <v>54</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N30" s="3">
         <v>1</v>
       </c>
       <c r="O30" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -2428,10 +2422,10 @@
         <v>30</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F31" s="3">
         <v>2</v>
@@ -2440,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I31" s="3">
         <v>1617667200</v>
@@ -2455,13 +2449,13 @@
         <v>53</v>
       </c>
       <c r="M31" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N31" s="3">
         <v>1</v>
       </c>
       <c r="O31" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -2475,10 +2469,10 @@
         <v>31</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F32" s="3">
         <v>2</v>
@@ -2487,7 +2481,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I32" s="3">
         <v>1617667200</v>
@@ -2502,13 +2496,13 @@
         <v>53</v>
       </c>
       <c r="M32" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N32" s="3">
         <v>1</v>
       </c>
       <c r="O32" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -2522,10 +2516,10 @@
         <v>32</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F33" s="3">
         <v>2</v>
@@ -2534,7 +2528,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I33" s="3">
         <v>1617667200</v>
@@ -2549,13 +2543,13 @@
         <v>53</v>
       </c>
       <c r="M33" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N33" s="3">
         <v>1</v>
       </c>
       <c r="O33" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
@@ -2569,7 +2563,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F34" s="4">
         <v>1</v>
@@ -2587,16 +2581,16 @@
         <v>12</v>
       </c>
       <c r="L34" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="M34" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="N34" s="4">
+        <v>1</v>
+      </c>
+      <c r="O34" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="N34" s="4">
-        <v>1</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2609,37 +2603,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="2"/>
   <pixelatorList sheetStid="3"/>
 </pixelators>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -2647,38 +2621,58 @@
 </settings>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>